--- a/biology/Médecine/Eugene_Melnyk/Eugene_Melnyk.xlsx
+++ b/biology/Médecine/Eugene_Melnyk/Eugene_Melnyk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugene Nestor Melnyk, né le 27 mai 1959 à Toronto au Canada et mort le 28 mars 2022[1],[2], est un homme d'affaires et mécène ukraino-canadien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugene Nestor Melnyk, né le 27 mai 1959 à Toronto au Canada et mort le 28 mars 2022 est un homme d'affaires et mécène ukraino-canadien.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parents de Melnyk, d'origine bukovienne de Tchernovtsy, ont déménagé au Canada au milieu des années 1940.
 Il a étudié à Toronto.
